--- a/public/assets/restaurants_bulk_format_nodata.xlsx
+++ b/public/assets/restaurants_bulk_format_nodata.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ownerID</t>
+  </si>
   <si>
     <t xml:space="preserve">ownerFirstName</t>
   </si>
@@ -31,6 +37,9 @@
     <t xml:space="preserve">restaurantName</t>
   </si>
   <si>
+    <t xml:space="preserve">CoverPhoto</t>
+  </si>
+  <si>
     <t xml:space="preserve">logo</t>
   </si>
   <si>
@@ -47,19 +56,88 @@
   </si>
   <si>
     <t xml:space="preserve">zone_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinimumOrderAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeliveryTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinimumDeliveryFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PerKmDeliveryFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaximumDeliveryFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RestaurantModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScheduleOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeDelivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TakeAway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NonVeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrderSubscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReviewsSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SelfDeliverySystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PosSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RestaurantOpen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -80,33 +158,20 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -135,20 +200,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,154 +226,203 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="20" min="19" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;K000000&amp;P</oddFooter>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>